--- a/data/trans_dic/P02E$otras-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,42 +691,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 17,83</t>
+          <t>2,23; 17,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,1</t>
+          <t>0,0; 15,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 14,69</t>
+          <t>1,6; 13,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,61</t>
+          <t>1,83; 11,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 24,8</t>
+          <t>9,82; 24,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,86</t>
+          <t>1,05; 9,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,47</t>
+          <t>2,43; 10,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 18,84</t>
+          <t>8,14; 19,34</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 20,55</t>
+          <t>9,33; 20,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,54</t>
+          <t>3,6; 10,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,6</t>
+          <t>2,23; 8,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 12,9</t>
+          <t>6,25; 12,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,6</t>
+          <t>5,2; 10,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,59</t>
+          <t>5,92; 12,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,19</t>
+          <t>8,72; 14,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,4</t>
+          <t>5,32; 9,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,88</t>
+          <t>5,06; 9,75</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,25</t>
+          <t>3,87; 10,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,44</t>
+          <t>3,41; 7,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,08</t>
+          <t>3,61; 8,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,23</t>
+          <t>2,28; 6,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,86</t>
+          <t>2,53; 5,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,03</t>
+          <t>6,44; 12,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,64</t>
+          <t>3,32; 6,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,9</t>
+          <t>3,19; 5,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,75</t>
+          <t>5,85; 9,75</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,41</t>
+          <t>0,95; 8,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,3</t>
+          <t>0,86; 5,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,87</t>
+          <t>2,06; 9,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,08</t>
+          <t>0,7; 6,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,28</t>
+          <t>1,67; 6,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,09</t>
+          <t>1,76; 8,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,03</t>
+          <t>1,25; 5,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,84</t>
+          <t>1,7; 4,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,68</t>
+          <t>2,75; 7,67</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,15</t>
+          <t>0,0; 30,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,15</t>
+          <t>0,0; 14,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,03</t>
+          <t>0,0; 14,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,21</t>
+          <t>0,0; 14,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,4</t>
+          <t>1,11; 9,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 22,24</t>
+          <t>4,57; 23,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,38</t>
+          <t>1,19; 12,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,59</t>
+          <t>1,49; 8,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 14,44</t>
+          <t>3,32; 15,0</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,87</t>
+          <t>0,0; 25,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,24</t>
+          <t>0,0; 18,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,39</t>
+          <t>0,0; 28,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,23</t>
+          <t>0,0; 13,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 17,13</t>
+          <t>2,0; 16,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,98</t>
+          <t>0,0; 12,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,45</t>
+          <t>1,31; 11,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,81</t>
+          <t>1,43; 12,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 13,83</t>
+          <t>1,67; 14,09</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 46,38</t>
+          <t>5,04; 44,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,65; 65,54</t>
+          <t>7,61; 63,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,32 +1361,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,53; 50,24</t>
+          <t>13,44; 50,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,02; 32,28</t>
+          <t>7,81; 32,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,85; 43,05</t>
+          <t>13,44; 41,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 43,8</t>
+          <t>15,06; 45,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,09; 34,07</t>
+          <t>9,98; 35,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 35,56</t>
+          <t>10,0; 35,26</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,62</t>
+          <t>6,22; 10,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,88</t>
+          <t>3,82; 6,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,89</t>
+          <t>3,68; 6,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,9</t>
+          <t>4,65; 7,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,62</t>
+          <t>4,2; 6,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,29</t>
+          <t>7,71; 11,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,26</t>
+          <t>5,7; 8,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,25</t>
+          <t>4,42; 6,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,95</t>
+          <t>6,51; 9,09</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es familiar, amigo/a, vecino/a, u otros</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2994</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2720</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4854</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14606</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2720</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7848</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16618</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>915; 7316</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6327</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>811; 6971</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1864; 11358</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8823; 22190</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>843; 7385</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3468; 15084</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10633; 25267</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24547</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13582</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28175</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29594</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25882</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52722</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43176</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33935</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15564; 34013</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7708; 21746</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3866; 15134</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18925; 38719</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20309; 41459</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17365; 37455</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40978; 67274</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32180; 56093</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23598; 45523</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16769</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21253</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18444</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15027</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22602</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36151</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31796</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43855</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54595</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10467; 27344</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14145; 32924</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11244; 27185</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8948; 24016</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14531; 34174</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26252; 49013</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21979; 43491</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31497; 56935</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42037; 70133</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3958</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5917</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7498</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2893</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8759</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8209</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6851</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14676</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15707</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1050; 9423</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1963; 12796</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3225; 14316</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>852; 7597</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4359; 16356</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3208; 15399</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2891; 13039</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8330; 23906</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9322; 26003</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6688</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4411</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6482</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7724</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5421</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7317</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5685</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9938</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1118; 9832</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2592; 13277</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1013; 11030</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2224; 12775</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3222; 14553</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2052</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2915</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2604</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3549</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4084</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6116</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6279</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>943; 7880</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4433</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>800; 6887</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>992; 8823</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>961; 8129</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4396</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8022</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7533</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>12091</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>11497</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11929</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>12091</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>817; 7288</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1138; 9474</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1570</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3418; 12770</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3222; 13312</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6035; 18533</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6269; 18762</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5608; 19672</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5736; 20222</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>51400</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>51276</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>39095</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>61201</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>80562</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>104647</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>112601</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>131838</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>143742</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>38959; 65075</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>37619; 67032</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>27861; 51102</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>46801; 77212</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>63709; 100977</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>85700; 126184</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>93071; 134732</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>110604; 158601</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>121619; 169745</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>